--- a/Production vapeur HP.xlsx
+++ b/Production vapeur HP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26623"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56E29718-2C38-4601-A9BC-098333452A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31508C21-E672-42AE-ABDA-5BCBFB9788EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Mois</t>
   </si>
@@ -37,28 +37,34 @@
 SAP</t>
   </si>
   <si>
-    <t>Consommation</t>
-  </si>
-  <si>
-    <t>Cédée</t>
-  </si>
-  <si>
-    <t>Recue</t>
-  </si>
-  <si>
-    <t>GTA</t>
-  </si>
-  <si>
-    <t>Détente</t>
+    <t>Consommation GTA</t>
+  </si>
+  <si>
+    <t>Consommation Détente</t>
+  </si>
+  <si>
+    <t>Consommation totale</t>
+  </si>
+  <si>
+    <t>Cédée à la Dde</t>
+  </si>
+  <si>
+    <t>Cédée Excédent</t>
+  </si>
+  <si>
+    <t>Cédée total</t>
+  </si>
+  <si>
+    <t>Recue à la Dde</t>
+  </si>
+  <si>
+    <t>Recue Excédent</t>
+  </si>
+  <si>
+    <t>Recue total</t>
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>A la Dde</t>
-  </si>
-  <si>
-    <t>Excédent</t>
   </si>
 </sst>
 </file>
@@ -94,9 +100,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,245 +420,252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="30.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
+      <c r="A2" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B2">
+        <v>49642.1</v>
+      </c>
+      <c r="C2">
+        <v>50980.1</v>
+      </c>
+      <c r="D2">
+        <v>1274</v>
+      </c>
+      <c r="E2">
+        <v>52254.1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>172</v>
+      </c>
+      <c r="H2">
+        <v>172</v>
+      </c>
+      <c r="I2">
+        <v>2784</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>2784</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B3">
-        <v>49642.1</v>
+        <v>51265</v>
       </c>
       <c r="C3">
-        <v>50980.1</v>
+        <v>47936.800000000003</v>
       </c>
       <c r="D3">
-        <v>1274</v>
+        <v>3574</v>
       </c>
       <c r="E3">
-        <v>52254.1</v>
+        <v>51510.8</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1169</v>
       </c>
       <c r="G3">
-        <v>172</v>
+        <v>2229</v>
       </c>
       <c r="H3">
-        <v>172</v>
+        <v>3398</v>
       </c>
       <c r="I3">
-        <v>2784</v>
+        <v>3643.8</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2784</v>
+        <v>3643.8</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B4">
-        <v>51265</v>
+        <v>101411</v>
       </c>
       <c r="C4">
-        <v>47936.800000000003</v>
+        <v>97334</v>
       </c>
       <c r="D4">
-        <v>3574</v>
+        <v>1860</v>
       </c>
       <c r="E4">
-        <v>51510.8</v>
+        <v>99194</v>
       </c>
       <c r="F4">
-        <v>1169</v>
+        <v>595</v>
       </c>
       <c r="G4">
-        <v>2229</v>
+        <v>1622</v>
       </c>
       <c r="H4">
-        <v>3398</v>
+        <v>2217</v>
       </c>
       <c r="I4">
-        <v>3643.8</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>3643.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B5">
-        <v>101411</v>
+        <v>102718</v>
       </c>
       <c r="C5">
-        <v>97334</v>
+        <v>100905</v>
       </c>
       <c r="D5">
-        <v>1860</v>
+        <v>1800</v>
       </c>
       <c r="E5">
-        <v>99194</v>
+        <v>102705</v>
       </c>
       <c r="F5">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1622</v>
+        <v>702</v>
       </c>
       <c r="H5">
-        <v>2217</v>
+        <v>702</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>689</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B6">
-        <v>102718</v>
+        <v>105856</v>
       </c>
       <c r="C6">
-        <v>100905</v>
+        <v>101379</v>
       </c>
       <c r="D6">
-        <v>1800</v>
+        <v>1860</v>
       </c>
       <c r="E6">
-        <v>102705</v>
+        <v>103239</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>951</v>
       </c>
       <c r="G6">
-        <v>702</v>
+        <v>1666</v>
       </c>
       <c r="H6">
-        <v>702</v>
+        <v>2617</v>
       </c>
       <c r="I6">
-        <v>689</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B7">
-        <v>105856</v>
+        <v>105746</v>
       </c>
       <c r="C7">
-        <v>101379</v>
+        <v>100232</v>
       </c>
       <c r="D7">
-        <v>1860</v>
+        <v>1800</v>
       </c>
       <c r="E7">
-        <v>103239</v>
+        <v>102032</v>
       </c>
       <c r="F7">
-        <v>951</v>
+        <v>3122</v>
       </c>
       <c r="G7">
-        <v>1666</v>
+        <v>592</v>
       </c>
       <c r="H7">
-        <v>2617</v>
+        <v>3714</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -663,133 +679,133 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B8">
-        <v>105746</v>
+        <v>91491</v>
       </c>
       <c r="C8">
-        <v>100232</v>
+        <v>89101</v>
       </c>
       <c r="D8">
-        <v>1800</v>
+        <v>1860</v>
       </c>
       <c r="E8">
-        <v>102032</v>
+        <v>90961</v>
       </c>
       <c r="F8">
-        <v>3122</v>
+        <v>179</v>
       </c>
       <c r="G8">
-        <v>592</v>
+        <v>724</v>
       </c>
       <c r="H8">
-        <v>3714</v>
+        <v>903</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B9">
-        <v>91491</v>
+        <v>93610</v>
       </c>
       <c r="C9">
-        <v>89101</v>
+        <v>91932.542000000001</v>
       </c>
       <c r="D9">
-        <v>1860</v>
+        <v>1480</v>
       </c>
       <c r="E9">
-        <v>90961</v>
+        <v>93412.542000000001</v>
       </c>
       <c r="F9">
-        <v>179</v>
+        <v>70</v>
       </c>
       <c r="G9">
-        <v>724</v>
+        <v>478</v>
       </c>
       <c r="H9">
-        <v>903</v>
+        <v>548</v>
       </c>
       <c r="I9">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>373</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B10">
-        <v>93610</v>
+        <v>101392</v>
       </c>
       <c r="C10">
-        <v>91932.542000000001</v>
+        <v>97763</v>
       </c>
       <c r="D10">
-        <v>1480</v>
+        <v>1740</v>
       </c>
       <c r="E10">
-        <v>93412.542000000001</v>
+        <v>99503</v>
       </c>
       <c r="F10">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>478</v>
+        <v>1889</v>
       </c>
       <c r="H10">
-        <v>548</v>
+        <v>1889</v>
       </c>
       <c r="I10">
-        <v>351</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B11">
-        <v>101392</v>
+        <v>105093</v>
       </c>
       <c r="C11">
-        <v>97763</v>
+        <v>102091</v>
       </c>
       <c r="D11">
-        <v>1740</v>
+        <v>1907</v>
       </c>
       <c r="E11">
-        <v>99503</v>
+        <v>103998</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="G11">
-        <v>1889</v>
+        <v>981</v>
       </c>
       <c r="H11">
-        <v>1889</v>
+        <v>1095</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -803,28 +819,28 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B12">
-        <v>105093</v>
+        <v>92362</v>
       </c>
       <c r="C12">
-        <v>102091</v>
+        <v>89985</v>
       </c>
       <c r="D12">
-        <v>1907</v>
+        <v>1800</v>
       </c>
       <c r="E12">
-        <v>103998</v>
+        <v>91785</v>
       </c>
       <c r="F12">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>981</v>
+        <v>577</v>
       </c>
       <c r="H12">
-        <v>1095</v>
+        <v>577</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -838,106 +854,71 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B13">
-        <v>92362</v>
+        <v>52581</v>
       </c>
       <c r="C13">
-        <v>89985</v>
+        <v>52378</v>
       </c>
       <c r="D13">
-        <v>1800</v>
+        <v>2184</v>
       </c>
       <c r="E13">
-        <v>91785</v>
+        <v>54562</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>577</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>577</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1981</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1">
-        <v>44896</v>
+      <c r="A14" t="s">
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>52581</v>
+        <v>1053167.1000000001</v>
       </c>
       <c r="C14">
-        <v>52378</v>
+        <v>1022017.442</v>
       </c>
       <c r="D14">
-        <v>2184</v>
+        <v>23139</v>
       </c>
       <c r="E14">
-        <v>54562</v>
+        <v>1045156.442</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>11632</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>17832</v>
       </c>
       <c r="I14">
-        <v>1981</v>
+        <v>9821.7999999999993</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>1053167.1000000001</v>
-      </c>
-      <c r="C15">
-        <v>1022017.442</v>
-      </c>
-      <c r="D15">
-        <v>23139</v>
-      </c>
-      <c r="E15">
-        <v>1045156.442</v>
-      </c>
-      <c r="F15">
-        <v>6200</v>
-      </c>
-      <c r="G15">
-        <v>11632</v>
-      </c>
-      <c r="H15">
-        <v>17832</v>
-      </c>
-      <c r="I15">
-        <v>9821.7999999999993</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
         <v>9821.7999999999993</v>
       </c>
     </row>

--- a/Production vapeur HP.xlsx
+++ b/Production vapeur HP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26623"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31508C21-E672-42AE-ABDA-5BCBFB9788EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88D4CA1F-97CE-4764-B58A-7095CB7B6FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>Mois</t>
   </si>
@@ -37,34 +37,28 @@
 SAP</t>
   </si>
   <si>
-    <t>Consommation GTA</t>
+    <t>Consommation</t>
   </si>
   <si>
-    <t>Consommation Détente</t>
+    <t>Cédée</t>
   </si>
   <si>
-    <t>Consommation totale</t>
+    <t>Recue</t>
   </si>
   <si>
-    <t>Cédée à la Dde</t>
+    <t>GTA</t>
   </si>
   <si>
-    <t>Cédée Excédent</t>
-  </si>
-  <si>
-    <t>Cédée total</t>
-  </si>
-  <si>
-    <t>Recue à la Dde</t>
-  </si>
-  <si>
-    <t>Recue Excédent</t>
-  </si>
-  <si>
-    <t>Recue total</t>
+    <t>Détente</t>
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>A la Dde</t>
+  </si>
+  <si>
+    <t>Excédent</t>
   </si>
 </sst>
 </file>
@@ -420,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -443,229 +437,223 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>44562</v>
-      </c>
-      <c r="B2">
-        <v>49642.1</v>
-      </c>
-      <c r="C2">
-        <v>50980.1</v>
-      </c>
-      <c r="D2">
-        <v>1274</v>
-      </c>
-      <c r="E2">
-        <v>52254.1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>172</v>
-      </c>
-      <c r="H2">
-        <v>172</v>
-      </c>
-      <c r="I2">
-        <v>2784</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>2784</v>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B3">
-        <v>51265</v>
+        <v>49642.1</v>
       </c>
       <c r="C3">
-        <v>47936.800000000003</v>
+        <v>50980.1</v>
       </c>
       <c r="D3">
-        <v>3574</v>
+        <v>1274</v>
       </c>
       <c r="E3">
-        <v>51510.8</v>
+        <v>52254.1</v>
       </c>
       <c r="F3">
-        <v>1169</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2229</v>
+        <v>172</v>
       </c>
       <c r="H3">
-        <v>3398</v>
+        <v>172</v>
       </c>
       <c r="I3">
-        <v>3643.8</v>
+        <v>2784</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3643.8</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B4">
-        <v>101411</v>
+        <v>51265</v>
       </c>
       <c r="C4">
-        <v>97334</v>
+        <v>47936.800000000003</v>
       </c>
       <c r="D4">
-        <v>1860</v>
+        <v>3574</v>
       </c>
       <c r="E4">
-        <v>99194</v>
+        <v>51510.8</v>
       </c>
       <c r="F4">
-        <v>595</v>
+        <v>1169</v>
       </c>
       <c r="G4">
-        <v>1622</v>
+        <v>2229</v>
       </c>
       <c r="H4">
-        <v>2217</v>
+        <v>3398</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3643.8</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>3643.8</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B5">
-        <v>102718</v>
+        <v>101411</v>
       </c>
       <c r="C5">
-        <v>100905</v>
+        <v>97334</v>
       </c>
       <c r="D5">
-        <v>1800</v>
+        <v>1860</v>
       </c>
       <c r="E5">
-        <v>102705</v>
+        <v>99194</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="G5">
-        <v>702</v>
+        <v>1622</v>
       </c>
       <c r="H5">
-        <v>702</v>
+        <v>2217</v>
       </c>
       <c r="I5">
-        <v>689</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B6">
-        <v>105856</v>
+        <v>102718</v>
       </c>
       <c r="C6">
-        <v>101379</v>
+        <v>100905</v>
       </c>
       <c r="D6">
-        <v>1860</v>
+        <v>1800</v>
       </c>
       <c r="E6">
-        <v>103239</v>
+        <v>102705</v>
       </c>
       <c r="F6">
-        <v>951</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1666</v>
+        <v>702</v>
       </c>
       <c r="H6">
-        <v>2617</v>
+        <v>702</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>689</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>689</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B7">
-        <v>105746</v>
+        <v>105856</v>
       </c>
       <c r="C7">
-        <v>100232</v>
+        <v>101379</v>
       </c>
       <c r="D7">
-        <v>1800</v>
+        <v>1860</v>
       </c>
       <c r="E7">
-        <v>102032</v>
+        <v>103239</v>
       </c>
       <c r="F7">
-        <v>3122</v>
+        <v>951</v>
       </c>
       <c r="G7">
-        <v>592</v>
+        <v>1666</v>
       </c>
       <c r="H7">
-        <v>3714</v>
+        <v>2617</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -679,133 +667,133 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B8">
-        <v>91491</v>
+        <v>105746</v>
       </c>
       <c r="C8">
-        <v>89101</v>
+        <v>100232</v>
       </c>
       <c r="D8">
-        <v>1860</v>
+        <v>1800</v>
       </c>
       <c r="E8">
-        <v>90961</v>
+        <v>102032</v>
       </c>
       <c r="F8">
-        <v>179</v>
+        <v>3122</v>
       </c>
       <c r="G8">
-        <v>724</v>
+        <v>592</v>
       </c>
       <c r="H8">
-        <v>903</v>
+        <v>3714</v>
       </c>
       <c r="I8">
-        <v>373</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B9">
-        <v>93610</v>
+        <v>91491</v>
       </c>
       <c r="C9">
-        <v>91932.542000000001</v>
+        <v>89101</v>
       </c>
       <c r="D9">
-        <v>1480</v>
+        <v>1860</v>
       </c>
       <c r="E9">
-        <v>93412.542000000001</v>
+        <v>90961</v>
       </c>
       <c r="F9">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c r="G9">
-        <v>478</v>
+        <v>724</v>
       </c>
       <c r="H9">
-        <v>548</v>
+        <v>903</v>
       </c>
       <c r="I9">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>351</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B10">
-        <v>101392</v>
+        <v>93610</v>
       </c>
       <c r="C10">
-        <v>97763</v>
+        <v>91932.542000000001</v>
       </c>
       <c r="D10">
-        <v>1740</v>
+        <v>1480</v>
       </c>
       <c r="E10">
-        <v>99503</v>
+        <v>93412.542000000001</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G10">
-        <v>1889</v>
+        <v>478</v>
       </c>
       <c r="H10">
-        <v>1889</v>
+        <v>548</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B11">
-        <v>105093</v>
+        <v>101392</v>
       </c>
       <c r="C11">
-        <v>102091</v>
+        <v>97763</v>
       </c>
       <c r="D11">
-        <v>1907</v>
+        <v>1740</v>
       </c>
       <c r="E11">
-        <v>103998</v>
+        <v>99503</v>
       </c>
       <c r="F11">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>981</v>
+        <v>1889</v>
       </c>
       <c r="H11">
-        <v>1095</v>
+        <v>1889</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -819,28 +807,28 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B12">
-        <v>92362</v>
+        <v>105093</v>
       </c>
       <c r="C12">
-        <v>89985</v>
+        <v>102091</v>
       </c>
       <c r="D12">
-        <v>1800</v>
+        <v>1907</v>
       </c>
       <c r="E12">
-        <v>91785</v>
+        <v>103998</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="G12">
-        <v>577</v>
+        <v>981</v>
       </c>
       <c r="H12">
-        <v>577</v>
+        <v>1095</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -854,71 +842,106 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B13">
+        <v>92362</v>
+      </c>
+      <c r="C13">
+        <v>89985</v>
+      </c>
+      <c r="D13">
+        <v>1800</v>
+      </c>
+      <c r="E13">
+        <v>91785</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>577</v>
+      </c>
+      <c r="H13">
+        <v>577</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
         <v>44896</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>52581</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>52378</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>2184</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>54562</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>1981</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>1981</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
         <v>1053167.1000000001</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>1022017.442</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>23139</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>1045156.442</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>6200</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>11632</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>17832</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>9821.7999999999993</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>9821.7999999999993</v>
       </c>
     </row>
